--- a/waga/data/20241113_waga.xlsx
+++ b/waga/data/20241113_waga.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="lata" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="28">
   <si>
     <t xml:space="preserve">Srednia za kolejny rok</t>
   </si>
@@ -94,9 +94,6 @@
   </si>
   <si>
     <t xml:space="preserve">BMI'20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bergen</t>
   </si>
   <si>
     <t xml:space="preserve">srednia '19</t>
@@ -1098,7 +1095,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1144,10 +1141,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0322395154488998"/>
-          <c:y val="0.0245345016429354"/>
-          <c:w val="0.959211837767385"/>
-          <c:h val="0.869222343921139"/>
+          <c:x val="0.0287138202031819"/>
+          <c:y val="0.0245371891773469"/>
+          <c:w val="0.963772282921219"/>
+          <c:h val="0.873480118304305"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1171,7 +1168,7 @@
             <a:solidFill>
               <a:srgbClr val="579d1c"/>
             </a:solidFill>
-            <a:ln w="28800">
+            <a:ln cap="rnd" w="28800">
               <a:solidFill>
                 <a:srgbClr val="579d1c"/>
               </a:solidFill>
@@ -1278,7 +1275,7 @@
             <a:solidFill>
               <a:srgbClr val="ff8000"/>
             </a:solidFill>
-            <a:ln w="28800">
+            <a:ln cap="rnd" w="28800">
               <a:solidFill>
                 <a:srgbClr val="ff8000"/>
               </a:solidFill>
@@ -1385,7 +1382,7 @@
             <a:solidFill>
               <a:srgbClr val="2a6099"/>
             </a:solidFill>
-            <a:ln w="28800">
+            <a:ln cap="rnd" w="28800">
               <a:solidFill>
                 <a:srgbClr val="2a6099"/>
               </a:solidFill>
@@ -1492,7 +1489,7 @@
             <a:solidFill>
               <a:srgbClr val="ffd320"/>
             </a:solidFill>
-            <a:ln w="28800">
+            <a:ln cap="rnd" w="28800">
               <a:solidFill>
                 <a:srgbClr val="ffd320"/>
               </a:solidFill>
@@ -1589,11 +1586,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="10385871"/>
-        <c:axId val="4814521"/>
+        <c:axId val="51378125"/>
+        <c:axId val="2442675"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="10385871"/>
+        <c:axId val="51378125"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1659,7 +1656,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4814521"/>
+        <c:crossAx val="2442675"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1667,7 +1664,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="4814521"/>
+        <c:axId val="2442675"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="87"/>
@@ -1721,7 +1718,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="10385871"/>
+        <c:crossAx val="51378125"/>
         <c:crosses val="min"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1773,7 +1770,624 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>label 0</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>srednia '19</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ff420e"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>1</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>0</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>77.3677419354839</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75.975</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75.2444444444444</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>74.83</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>73.5965517241379</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>72.1333333333334</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70.5838709677419</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70.641935483871</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70.4130434782609</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>69.6703703703704</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>67.73</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>67.7741935483871</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>label 2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>srednia '18</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>82.7580645161291</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>83.1071428571429</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>83.9967741935484</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>84.3633333333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84.9483870967742</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>84.4566666666667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>83.7846153846154</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>82.9793103448275</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>82.4545454545455</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>80.8965517241379</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80.3466666666667</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>78.7903225806452</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>label 4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>srednia '17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84.8363636363636</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>84.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>83.6142857142857</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>82.7307692307692</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80.9285714285714</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>79.6851851851852</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80.0566666666667</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>81.8428571428572</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="5199725"/>
+        <c:axId val="74984559"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="5199725"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="12"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6480">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="en-US" sz="999" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="74984559"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="0.5"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="74984559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="86"/>
+          <c:min val="67"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6480">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="en-US" sz="999" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="5199725"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="36000">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" lang="en-US" sz="999" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="0"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1819,10 +2433,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0287127194663804"/>
-          <c:y val="0.0225629791894852"/>
-          <c:w val="0.963812006440236"/>
-          <c:h val="0.875575027382256"/>
+          <c:x val="0.0287138202031819"/>
+          <c:y val="0.0225654507613101"/>
+          <c:w val="0.963810619129768"/>
+          <c:h val="0.875451856720342"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1831,113 +2445,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'2020'!$A$40</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>BMI'20</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="579d1c"/>
-            </a:solidFill>
-            <a:ln cap="rnd" w="28800">
-              <a:solidFill>
-                <a:srgbClr val="579d1c"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="579d1c"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>'2020'!$B$40:$M$40</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>23.7818470408366</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>23.6589803554159</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>23.7273701675305</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>23.4340534295018</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>23.5726362703032</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>23.9207310668394</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24.0774979641763</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>24.0165079608896</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>24.1728230804244</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>24.2615974185416</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>24.4295834646313</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>24.6038191036503</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>'2019'!$A$40</c:f>
@@ -2043,8 +2550,8 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>'2018'!$A$40</c:f>
@@ -2150,8 +2657,8 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>'2017'!$A$38</c:f>
@@ -2174,15 +2681,6 @@
               <a:round/>
             </a:ln>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="x"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
           <c:dLbls>
             <c:txPr>
               <a:bodyPr wrap="none"/>
@@ -2252,11 +2750,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="72621264"/>
-        <c:axId val="18512136"/>
+        <c:axId val="46913421"/>
+        <c:axId val="30472439"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="72621264"/>
+        <c:axId val="46913421"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2288,7 +2786,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="18512136"/>
+        <c:crossAx val="30472439"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2296,7 +2794,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="18512136"/>
+        <c:axId val="30472439"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
@@ -2340,7 +2838,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72621264"/>
+        <c:crossAx val="46913421"/>
         <c:crosses val="min"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2392,7 +2890,534 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2018'!$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>srednia '18</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln cap="rnd" w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'2018'!$B$35:$M$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>82.758064516129</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>83.1071428571429</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>83.9967741935484</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>84.3633333333333</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84.9483870967742</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>84.4566666666667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>83.7846153846154</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>82.9793103448276</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>82.4545454545455</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>80.8965517241379</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80.3466666666667</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>78.7903225806452</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="85456503"/>
+        <c:axId val="57908038"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="85456503"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6480">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="57908038"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="57908038"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="85"/>
+          <c:min val="78"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6480">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="85456503"/>
+        <c:crosses val="min"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="0"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2017'!$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>srednia '17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln cap="rnd" w="28800">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'2017'!$B$35:$M$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>84.8363636363636</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>84.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>83.6142857142857</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>82.7307692307692</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80.9285714285714</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>79.6851851851852</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>80.0566666666667</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>81.8428571428571</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln w="0">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="78827120"/>
+        <c:axId val="92063251"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="78827120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="92063251"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="92063251"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="85"/>
+          <c:min val="79"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="6480">
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="6480">
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Calibri"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="78827120"/>
+        <c:crosses val="min"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.5"/>
+        <c:minorUnit val="0.5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="9360">
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="0"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="0">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2438,10 +3463,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0287127194663804"/>
-          <c:y val="0.0245345016429354"/>
-          <c:w val="0.963812006440236"/>
-          <c:h val="0.873603504928806"/>
+          <c:x val="0.0322407513896876"/>
+          <c:y val="0.0245371891773469"/>
+          <c:w val="0.959171937895342"/>
+          <c:h val="0.869098477379779"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -2465,7 +3490,7 @@
             <a:solidFill>
               <a:srgbClr val="579d1c"/>
             </a:solidFill>
-            <a:ln cap="rnd" w="28800">
+            <a:ln w="28800">
               <a:solidFill>
                 <a:srgbClr val="579d1c"/>
               </a:solidFill>
@@ -2572,7 +3597,7 @@
             <a:solidFill>
               <a:srgbClr val="ff8000"/>
             </a:solidFill>
-            <a:ln cap="rnd" w="28800">
+            <a:ln w="28800">
               <a:solidFill>
                 <a:srgbClr val="ff8000"/>
               </a:solidFill>
@@ -2679,7 +3704,7 @@
             <a:solidFill>
               <a:srgbClr val="2a6099"/>
             </a:solidFill>
-            <a:ln cap="rnd" w="28800">
+            <a:ln w="28800">
               <a:solidFill>
                 <a:srgbClr val="2a6099"/>
               </a:solidFill>
@@ -2786,7 +3811,7 @@
             <a:solidFill>
               <a:srgbClr val="ffd320"/>
             </a:solidFill>
-            <a:ln cap="rnd" w="28800">
+            <a:ln w="28800">
               <a:solidFill>
                 <a:srgbClr val="ffd320"/>
               </a:solidFill>
@@ -2883,11 +3908,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="87156507"/>
-        <c:axId val="6659178"/>
+        <c:axId val="74658088"/>
+        <c:axId val="85896846"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="87156507"/>
+        <c:axId val="74658088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2953,7 +3978,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="6659178"/>
+        <c:crossAx val="85896846"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2961,7 +3986,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="6659178"/>
+        <c:axId val="85896846"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="87"/>
@@ -3015,7 +4040,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="87156507"/>
+        <c:crossAx val="74658088"/>
         <c:crosses val="min"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3067,624 +4092,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>label 0</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>srednia '19</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ff420e"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ff420e"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>1</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>0</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>77.3677419354839</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>75.975</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>75.2444444444444</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>74.83</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>73.5965517241379</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>72.1333333333334</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70.5838709677419</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>70.641935483871</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>70.4130434782609</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>69.6703703703704</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>67.73</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>67.7741935483871</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>label 2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>srednia '18</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>82.7580645161291</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>83.1071428571429</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>83.9967741935484</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>84.3633333333333</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>84.9483870967742</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>84.4566666666667</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>83.7846153846154</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>82.9793103448275</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>82.4545454545455</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>80.8965517241379</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>80.3466666666667</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>78.7903225806452</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>label 4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>srednia '17</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="ffd320"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:solidFill>
-                <a:srgbClr val="ffd320"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>84.8363636363636</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>84.4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>83.6142857142857</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>82.7307692307692</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>80.9285714285714</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>79.6851851851852</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>80.0566666666667</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>81.8428571428572</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="26780677"/>
-        <c:axId val="70157870"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="26780677"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="12"/>
-          <c:min val="1"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="6480">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="low"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" lang="en-US" sz="999" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="70157870"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1"/>
-        <c:minorUnit val="0.5"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="70157870"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="86"/>
-          <c:min val="67"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="6480">
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="low"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" lang="en-US" sz="999" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="26780677"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="36000">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" lang="en-US" sz="999" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="0"/>
-    <c:dispBlanksAs val="span"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="0">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3730,10 +4138,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0287127194663804"/>
-          <c:y val="0.0225629791894852"/>
-          <c:w val="0.963850341179177"/>
-          <c:h val="0.875575027382256"/>
+          <c:x val="0.0287138202031819"/>
+          <c:y val="0.0225654507613101"/>
+          <c:w val="0.963772282921219"/>
+          <c:h val="0.875451856720342"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -3742,6 +4150,113 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2020'!$A$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BMI'20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="579d1c"/>
+            </a:solidFill>
+            <a:ln cap="rnd" w="28800">
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="579d1c"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr wrap="none"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="1"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'2020'!$B$40:$M$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>23.7818470408366</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.6589803554159</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.7273701675305</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.4340534295018</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23.5726362703032</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.9207310668394</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.0774979641763</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.0165079608896</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24.1728230804244</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>24.2615974185416</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24.4295834646313</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24.6038191036503</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>'2019'!$A$40</c:f>
@@ -3847,8 +4362,8 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>'2018'!$A$40</c:f>
@@ -3954,8 +4469,8 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="3"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>'2017'!$A$38</c:f>
@@ -3978,6 +4493,15 @@
               <a:round/>
             </a:ln>
           </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
           <c:dLbls>
             <c:txPr>
               <a:bodyPr wrap="none"/>
@@ -4047,11 +4571,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="54150435"/>
-        <c:axId val="25957772"/>
+        <c:axId val="18063891"/>
+        <c:axId val="36862073"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="54150435"/>
+        <c:axId val="18063891"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4083,7 +4607,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="25957772"/>
+        <c:crossAx val="36862073"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4091,7 +4615,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="25957772"/>
+        <c:axId val="36862073"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
@@ -4135,536 +4659,9 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="54150435"/>
+        <c:crossAx val="18063891"/>
         <c:crosses val="min"/>
         <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:defRPr>
-          </a:pPr>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="0"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="0">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'2018'!$A$35</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>srednia '18</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln cap="rnd" w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>'2018'!$B$35:$M$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>82.758064516129</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>83.1071428571429</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>83.9967741935484</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>84.3633333333333</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>84.9483870967742</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>84.4566666666667</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>83.7846153846154</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>82.9793103448276</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>82.4545454545455</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>80.8965517241379</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>80.3466666666667</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>78.7903225806452</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="1"/>
-        <c:axId val="38523074"/>
-        <c:axId val="69792629"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="38523074"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="6480">
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="low"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="69792629"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="69792629"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="85"/>
-          <c:min val="78"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="6480">
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:numFmt formatCode="0.0" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="38523074"/>
-        <c:crosses val="min"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="9360">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="0"/>
-    <c:dispBlanksAs val="gap"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln w="0">
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'2017'!$A$35</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>srednia '17</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln cap="rnd" w="28800">
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr wrap="none"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="r"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="1"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:val>
-            <c:numRef>
-              <c:f>'2017'!$B$35:$M$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>84.8363636363636</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>84.4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>83.6142857142857</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>82.7307692307692</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>80.9285714285714</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>79.6851851851852</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>80.0566666666667</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>81.8428571428571</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines>
-          <c:spPr>
-            <a:ln w="0">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:hiLowLines>
-        <c:marker val="1"/>
-        <c:axId val="41214118"/>
-        <c:axId val="56747525"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="41214118"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="low"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="56747525"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="56747525"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="85"/>
-          <c:min val="79"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="6480">
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.0" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln w="6480">
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" lang="en-US" sz="1000" spc="-1" strike="noStrike">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="41214118"/>
-        <c:crosses val="min"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="0.5"/>
-        <c:minorUnit val="0.5"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -4725,9 +4722,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>745560</xdr:colOff>
+      <xdr:colOff>745200</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>135000</xdr:rowOff>
+      <xdr:rowOff>134640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4736,7 +4733,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1937880" y="7351920"/>
-        <a:ext cx="9390600" cy="3286440"/>
+        <a:ext cx="9390240" cy="3286080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4760,9 +4757,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>535320</xdr:colOff>
+      <xdr:colOff>534960</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>86760</xdr:rowOff>
+      <xdr:rowOff>86400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4771,7 +4768,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1669680" y="10821240"/>
-        <a:ext cx="9390600" cy="3286440"/>
+        <a:ext cx="9390240" cy="3286080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4790,9 +4787,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>551880</xdr:colOff>
+      <xdr:colOff>551520</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>5400</xdr:rowOff>
+      <xdr:rowOff>5040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4801,7 +4798,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1686240" y="7234560"/>
-        <a:ext cx="9390600" cy="3286440"/>
+        <a:ext cx="9390240" cy="3286080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4825,9 +4822,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>937800</xdr:colOff>
+      <xdr:colOff>937440</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>41760</xdr:rowOff>
+      <xdr:rowOff>41400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4836,7 +4833,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1718280" y="7558920"/>
-        <a:ext cx="9878040" cy="2998440"/>
+        <a:ext cx="9877680" cy="2998080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4855,9 +4852,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>685080</xdr:colOff>
+      <xdr:colOff>684720</xdr:colOff>
       <xdr:row>79</xdr:row>
-      <xdr:rowOff>138960</xdr:rowOff>
+      <xdr:rowOff>138600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4866,7 +4863,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1953000" y="10698120"/>
-        <a:ext cx="9390600" cy="3286440"/>
+        <a:ext cx="9390240" cy="3286080"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4890,9 +4887,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>787320</xdr:colOff>
+      <xdr:colOff>786960</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>93960</xdr:rowOff>
+      <xdr:rowOff>93600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4901,7 +4898,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="1545120" y="8001000"/>
-        <a:ext cx="9767160" cy="1907640"/>
+        <a:ext cx="9766800" cy="1907280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4925,9 +4922,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>1017000</xdr:colOff>
+      <xdr:colOff>1016640</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>7200</xdr:rowOff>
+      <xdr:rowOff>6840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4936,7 +4933,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="433800" y="7494840"/>
-        <a:ext cx="9223560" cy="3027960"/>
+        <a:ext cx="9223200" cy="3027600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4960,7 +4957,7 @@
       <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.03"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.5"/>
@@ -5180,11 +5177,11 @@
   </sheetPr>
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M2" activeCellId="0" sqref="M2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="21"/>
@@ -6666,7 +6663,7 @@
       <selection pane="topLeft" activeCell="N34" activeCellId="0" sqref="N34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="15.79"/>
   </cols>
@@ -8463,7 +8460,7 @@
       <selection pane="topLeft" activeCell="A41" activeCellId="0" sqref="A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.46875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="15.79"/>
   </cols>
@@ -10301,7 +10298,7 @@
       <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="1" style="0" width="10.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="21.94"/>
@@ -12219,7 +12216,7 @@
       <selection pane="topLeft" activeCell="B39" activeCellId="0" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="1" style="0" width="10.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="83" width="14.61"/>
@@ -14081,11 +14078,11 @@
   </sheetPr>
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B39" activeCellId="0" sqref="B39"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K15" activeCellId="0" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="2" style="0" width="10.46"/>
@@ -14721,9 +14718,7 @@
       <c r="J15" s="95" t="n">
         <v>70.3</v>
       </c>
-      <c r="K15" s="102" t="s">
-        <v>22</v>
-      </c>
+      <c r="K15" s="102"/>
       <c r="L15" s="68" t="n">
         <v>67.5</v>
       </c>
@@ -15557,7 +15552,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B35" s="63" t="n">
         <f aca="false">AVERAGE(B2:B32)</f>
@@ -15723,7 +15718,7 @@
       </c>
       <c r="N37" s="85" t="n">
         <f aca="false">AVERAGE(B37:M37)</f>
-        <v>0.602767106655725</v>
+        <v>0.602767106655726</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15825,7 +15820,7 @@
       </c>
       <c r="K39" s="47" t="n">
         <f aca="false">K35-J35</f>
-        <v>-0.742673107890511</v>
+        <v>-0.742673107890539</v>
       </c>
       <c r="L39" s="47" t="n">
         <f aca="false">L35-K35</f>
@@ -15837,12 +15832,12 @@
       </c>
       <c r="N39" s="85" t="n">
         <f aca="false">AVERAGE(B39:M39)</f>
-        <v>-0.918817204301075</v>
+        <v>-0.918817204301077</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B40" s="50" t="n">
         <f aca="false">B35/(1.69*1.69)</f>
@@ -15920,7 +15915,7 @@
       <selection pane="topLeft" activeCell="N34" activeCellId="0" sqref="N34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="1" style="0" width="10.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="16.84"/>
@@ -17242,7 +17237,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B35" s="63" t="n">
         <f aca="false">AVERAGE(B2:B32)</f>
@@ -17528,7 +17523,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B40" s="50" t="n">
         <f aca="false">B35/(1.69*1.69)</f>
@@ -17603,10 +17598,10 @@
   <dimension ref="A1:BK46"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N38" activeCellId="0" sqref="N38"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.83984375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="21" width="10.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="2" style="21" width="8.37"/>
@@ -17659,9 +17654,7 @@
       <c r="A2" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="68" t="n">
-        <v>0</v>
-      </c>
+      <c r="B2" s="68"/>
       <c r="C2" s="68"/>
       <c r="D2" s="68"/>
       <c r="E2" s="68"/>
@@ -18650,7 +18643,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B35" s="63" t="n">
         <v>0</v>
@@ -18891,7 +18884,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
